--- a/exports/timetable_2025-06-30.xlsx
+++ b/exports/timetable_2025-06-30.xlsx
@@ -47,7 +47,7 @@
     <t>English</t>
   </si>
   <si>
-    <t>T16</t>
+    <t>T1</t>
   </si>
   <si>
     <t>P2</t>
@@ -59,10 +59,10 @@
     <t>P4</t>
   </si>
   <si>
-    <t>T1</t>
+    <t>P5</t>
   </si>
   <si>
-    <t>P5</t>
+    <t>T16</t>
   </si>
   <si>
     <t>P6</t>
@@ -71,7 +71,7 @@
     <t>Mathematics</t>
   </si>
   <si>
-    <t>T17</t>
+    <t>T2</t>
   </si>
   <si>
     <t>P7</t>
@@ -273,7 +273,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -287,13 +287,13 @@
         <v>8</v>
       </c>
       <c r="D6" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -413,7 +413,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -427,13 +427,13 @@
         <v>21</v>
       </c>
       <c r="D13" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -567,13 +567,13 @@
         <v>22</v>
       </c>
       <c r="D20" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E20" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -693,7 +693,7 @@
         <v>10</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -707,13 +707,13 @@
         <v>23</v>
       </c>
       <c r="D27" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E27" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -833,7 +833,7 @@
         <v>10</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -847,13 +847,13 @@
         <v>24</v>
       </c>
       <c r="D34" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E34" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F34" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -973,7 +973,7 @@
         <v>10</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -987,13 +987,13 @@
         <v>25</v>
       </c>
       <c r="D41" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E41" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F41" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -1113,7 +1113,7 @@
         <v>10</v>
       </c>
       <c r="F47" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
@@ -1127,13 +1127,13 @@
         <v>26</v>
       </c>
       <c r="D48" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E48" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F48" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -1253,7 +1253,7 @@
         <v>10</v>
       </c>
       <c r="F54" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55">
@@ -1267,13 +1267,13 @@
         <v>27</v>
       </c>
       <c r="D55" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E55" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E55" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F55" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="56">
@@ -1393,7 +1393,7 @@
         <v>10</v>
       </c>
       <c r="F61" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62">
@@ -1407,13 +1407,13 @@
         <v>8</v>
       </c>
       <c r="D62" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E62" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E62" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F62" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="63">
@@ -1533,7 +1533,7 @@
         <v>10</v>
       </c>
       <c r="F68" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69">
@@ -1547,13 +1547,13 @@
         <v>21</v>
       </c>
       <c r="D69" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E69" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F69" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E69" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F69" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="70">
@@ -1673,7 +1673,7 @@
         <v>10</v>
       </c>
       <c r="F75" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76">
@@ -1687,13 +1687,13 @@
         <v>22</v>
       </c>
       <c r="D76" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E76" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F76" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E76" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F76" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="77">
@@ -1813,7 +1813,7 @@
         <v>10</v>
       </c>
       <c r="F82" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83">
@@ -1827,13 +1827,13 @@
         <v>23</v>
       </c>
       <c r="D83" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E83" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E83" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F83" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="84">
@@ -1953,7 +1953,7 @@
         <v>10</v>
       </c>
       <c r="F89" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90">
@@ -1967,13 +1967,13 @@
         <v>24</v>
       </c>
       <c r="D90" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E90" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F90" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E90" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F90" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="91">
@@ -2093,7 +2093,7 @@
         <v>10</v>
       </c>
       <c r="F96" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97">
@@ -2107,13 +2107,13 @@
         <v>25</v>
       </c>
       <c r="D97" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E97" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F97" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E97" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F97" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="98">
@@ -2233,7 +2233,7 @@
         <v>10</v>
       </c>
       <c r="F103" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104">
@@ -2247,13 +2247,13 @@
         <v>26</v>
       </c>
       <c r="D104" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E104" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F104" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E104" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F104" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="105">
@@ -2373,7 +2373,7 @@
         <v>10</v>
       </c>
       <c r="F110" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111">
@@ -2387,13 +2387,13 @@
         <v>27</v>
       </c>
       <c r="D111" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E111" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F111" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E111" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F111" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="112">
@@ -2513,7 +2513,7 @@
         <v>10</v>
       </c>
       <c r="F117" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118">
@@ -2527,13 +2527,13 @@
         <v>8</v>
       </c>
       <c r="D118" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E118" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F118" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E118" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F118" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="119">
@@ -2653,7 +2653,7 @@
         <v>10</v>
       </c>
       <c r="F124" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125">
@@ -2667,13 +2667,13 @@
         <v>21</v>
       </c>
       <c r="D125" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E125" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F125" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E125" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F125" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="126">
@@ -2793,7 +2793,7 @@
         <v>10</v>
       </c>
       <c r="F131" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132">
@@ -2807,13 +2807,13 @@
         <v>22</v>
       </c>
       <c r="D132" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E132" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F132" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E132" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F132" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="133">
@@ -2933,7 +2933,7 @@
         <v>10</v>
       </c>
       <c r="F138" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139">
@@ -2947,13 +2947,13 @@
         <v>23</v>
       </c>
       <c r="D139" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E139" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F139" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E139" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F139" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="140">
@@ -3073,7 +3073,7 @@
         <v>10</v>
       </c>
       <c r="F145" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146">
@@ -3087,13 +3087,13 @@
         <v>24</v>
       </c>
       <c r="D146" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E146" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F146" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E146" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F146" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="147">
@@ -3213,7 +3213,7 @@
         <v>10</v>
       </c>
       <c r="F152" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153">
@@ -3227,13 +3227,13 @@
         <v>25</v>
       </c>
       <c r="D153" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E153" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F153" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E153" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F153" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="154">
@@ -3353,7 +3353,7 @@
         <v>10</v>
       </c>
       <c r="F159" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160">
@@ -3367,13 +3367,13 @@
         <v>26</v>
       </c>
       <c r="D160" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E160" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F160" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E160" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F160" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="161">
@@ -3493,7 +3493,7 @@
         <v>10</v>
       </c>
       <c r="F166" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167">
@@ -3507,13 +3507,13 @@
         <v>27</v>
       </c>
       <c r="D167" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E167" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F167" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E167" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F167" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="168">
@@ -3633,7 +3633,7 @@
         <v>10</v>
       </c>
       <c r="F173" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174">
@@ -3647,13 +3647,13 @@
         <v>8</v>
       </c>
       <c r="D174" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E174" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F174" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E174" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F174" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="175">
@@ -3773,7 +3773,7 @@
         <v>10</v>
       </c>
       <c r="F180" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="181">
@@ -3787,13 +3787,13 @@
         <v>21</v>
       </c>
       <c r="D181" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E181" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F181" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E181" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F181" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="182">
@@ -3913,7 +3913,7 @@
         <v>10</v>
       </c>
       <c r="F187" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188">
@@ -3927,13 +3927,13 @@
         <v>22</v>
       </c>
       <c r="D188" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E188" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F188" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E188" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F188" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="189">
@@ -4053,7 +4053,7 @@
         <v>10</v>
       </c>
       <c r="F194" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195">
@@ -4067,13 +4067,13 @@
         <v>23</v>
       </c>
       <c r="D195" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E195" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F195" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E195" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F195" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="196">
@@ -4193,7 +4193,7 @@
         <v>10</v>
       </c>
       <c r="F201" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="202">
@@ -4207,13 +4207,13 @@
         <v>24</v>
       </c>
       <c r="D202" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E202" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F202" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E202" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F202" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="203">
@@ -4333,7 +4333,7 @@
         <v>10</v>
       </c>
       <c r="F208" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="209">
@@ -4347,13 +4347,13 @@
         <v>25</v>
       </c>
       <c r="D209" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E209" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F209" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E209" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F209" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="210">
@@ -4473,7 +4473,7 @@
         <v>10</v>
       </c>
       <c r="F215" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="216">
@@ -4487,13 +4487,13 @@
         <v>26</v>
       </c>
       <c r="D216" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E216" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F216" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E216" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F216" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="217">
@@ -4613,7 +4613,7 @@
         <v>10</v>
       </c>
       <c r="F222" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="223">
@@ -4627,13 +4627,13 @@
         <v>27</v>
       </c>
       <c r="D223" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E223" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F223" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E223" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F223" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="224">
@@ -4753,7 +4753,7 @@
         <v>10</v>
       </c>
       <c r="F229" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="230">
@@ -4767,13 +4767,13 @@
         <v>8</v>
       </c>
       <c r="D230" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E230" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F230" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E230" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F230" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="231">
@@ -4893,7 +4893,7 @@
         <v>10</v>
       </c>
       <c r="F236" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="237">
@@ -4907,13 +4907,13 @@
         <v>21</v>
       </c>
       <c r="D237" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E237" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F237" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E237" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F237" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="238">
@@ -5033,7 +5033,7 @@
         <v>10</v>
       </c>
       <c r="F243" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="244">
@@ -5047,13 +5047,13 @@
         <v>22</v>
       </c>
       <c r="D244" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E244" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F244" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E244" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F244" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="245">
@@ -5173,7 +5173,7 @@
         <v>10</v>
       </c>
       <c r="F250" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251">
@@ -5187,13 +5187,13 @@
         <v>23</v>
       </c>
       <c r="D251" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E251" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F251" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E251" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F251" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="252">
@@ -5313,7 +5313,7 @@
         <v>10</v>
       </c>
       <c r="F257" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="258">
@@ -5327,13 +5327,13 @@
         <v>24</v>
       </c>
       <c r="D258" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E258" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F258" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E258" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F258" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="259">
@@ -5453,7 +5453,7 @@
         <v>10</v>
       </c>
       <c r="F264" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="265">
@@ -5467,13 +5467,13 @@
         <v>25</v>
       </c>
       <c r="D265" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E265" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F265" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E265" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F265" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="266">
@@ -5593,7 +5593,7 @@
         <v>10</v>
       </c>
       <c r="F271" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="272">
@@ -5607,13 +5607,13 @@
         <v>26</v>
       </c>
       <c r="D272" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E272" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F272" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E272" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F272" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="273">
@@ -5733,7 +5733,7 @@
         <v>10</v>
       </c>
       <c r="F278" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="279">
@@ -5747,13 +5747,13 @@
         <v>27</v>
       </c>
       <c r="D279" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E279" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F279" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="E279" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F279" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="280">
@@ -5873,7 +5873,7 @@
         <v>10</v>
       </c>
       <c r="F285" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="286">
@@ -5953,7 +5953,7 @@
         <v>10</v>
       </c>
       <c r="F289" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="290">
@@ -6033,7 +6033,7 @@
         <v>10</v>
       </c>
       <c r="F293" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="294">
@@ -6113,7 +6113,7 @@
         <v>10</v>
       </c>
       <c r="F297" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="298">
@@ -6193,7 +6193,7 @@
         <v>10</v>
       </c>
       <c r="F301" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="302">
@@ -6273,7 +6273,7 @@
         <v>10</v>
       </c>
       <c r="F305" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306">
@@ -6353,7 +6353,7 @@
         <v>10</v>
       </c>
       <c r="F309" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="310">
@@ -6433,7 +6433,7 @@
         <v>10</v>
       </c>
       <c r="F313" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
